--- a/MineralReactions/ThermoModelling.xlsx
+++ b/MineralReactions/ThermoModelling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Caitlin/Desktop/DeMMO_BiofilmPub2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Caitlin/Desktop/DeMMO_BiofilmPub2018/DeMMO_BiofilmPub2019/MineralReactions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CD10B-712F-154A-93F8-77F8C46D88CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600AAA11-3F3D-7448-A003-3F709D0B8455}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{75F28442-32CE-FC4A-B44E-E421732C013D}"/>
+    <workbookView xWindow="-20" yWindow="20" windowWidth="25600" windowHeight="15920" xr2:uid="{75F28442-32CE-FC4A-B44E-E421732C013D}"/>
   </bookViews>
   <sheets>
     <sheet name="bal eqs" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="333">
   <si>
     <t xml:space="preserve">reactant a </t>
   </si>
@@ -2854,6 +2859,226 @@
   <si>
     <t>reactand d</t>
   </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <r>
+      <t>2HCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>4CO</t>
+  </si>
+  <si>
+    <r>
+      <t>HCO3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4HCO3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3FeS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FeS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+  </si>
+  <si>
+    <t>8CO</t>
+  </si>
+  <si>
+    <r>
+      <t>6SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2-</t>
+    </r>
+  </si>
+  <si>
+    <t>8CH4</t>
+  </si>
+  <si>
+    <t>48e-</t>
+  </si>
+  <si>
+    <r>
+      <t>6FeCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6HCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2862,7 +3087,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2985,8 +3210,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFCD6F6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3065,6 +3309,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -3107,7 +3363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3242,6 +3498,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3563,10 +3822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561D2CC1-0A9B-6B4D-97AE-334924F19869}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3730,8 +3989,8 @@
         <v>11</v>
       </c>
       <c r="I4" s="20"/>
-      <c r="K4" s="74" t="s">
-        <v>305</v>
+      <c r="K4" s="84" t="s">
+        <v>324</v>
       </c>
       <c r="L4" s="74" t="s">
         <v>69</v>
@@ -3783,7 +4042,32 @@
         <v>34</v>
       </c>
       <c r="I5" s="20"/>
-      <c r="N5" s="3"/>
+      <c r="K5" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="M5" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="N5" s="81"/>
+      <c r="O5" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="R5" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="20">
       <c r="A6" s="4" t="s">
@@ -3811,9 +4095,6 @@
         <v>29</v>
       </c>
       <c r="I6" s="20"/>
-      <c r="K6" s="31" t="s">
-        <v>74</v>
-      </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:21" ht="20">
@@ -3842,32 +4123,10 @@
         <v>11</v>
       </c>
       <c r="I7" s="20"/>
-      <c r="K7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="42"/>
+      <c r="K7" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:21" ht="20">
       <c r="A8" s="4" t="s">
@@ -3895,33 +4154,32 @@
         <v>34</v>
       </c>
       <c r="I8" s="20"/>
-      <c r="K8" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="K8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="23"/>
+      <c r="O8" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="42"/>
     </row>
     <row r="9" spans="1:21" ht="20">
       <c r="A9" s="4" t="s">
@@ -3950,146 +4208,156 @@
       </c>
       <c r="I9" s="20"/>
       <c r="K9" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="20">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="K10" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L10" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M10" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O10" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P10" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q10" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="R10" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S10" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="D10" s="3"/>
-      <c r="I10" s="20"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:21" ht="20">
+      <c r="D11" s="3"/>
+      <c r="I11" s="20"/>
+      <c r="K11" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="K11" s="32" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="K13" s="32" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="K12" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="P12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="20">
-      <c r="A13" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="K13" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="L13" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="N13" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="P13" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="20">
@@ -4097,10 +4365,10 @@
         <v>206</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
@@ -4109,169 +4377,163 @@
         <v>213</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G14" s="11" t="s">
         <v>204</v>
       </c>
+      <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="L14" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="M14" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="N14" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="P14" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q14" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="R14" s="52" t="s">
-        <v>11</v>
+      <c r="K14" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="51"/>
+      <c r="O14" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="50" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="20">
       <c r="A15" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>216</v>
+        <v>194</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>319</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K15" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="N15" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="N15" s="53" t="s">
         <v>12</v>
       </c>
       <c r="O15" s="52" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="P15" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q15" s="52" t="s">
-        <v>245</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="Q15" s="52"/>
       <c r="R15" s="52" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="20">
       <c r="A16" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K16" s="52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L16" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M16" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="N16" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="N16" s="53" t="s">
         <v>12</v>
       </c>
       <c r="O16" s="52" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="P16" s="52" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="52" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="R16" s="52" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="20">
       <c r="A17" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K17" s="52" t="s">
         <v>240</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M17" s="52" t="s">
         <v>242</v>
@@ -4283,10 +4545,10 @@
         <v>244</v>
       </c>
       <c r="P17" s="52" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="52" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="R17" s="52" t="s">
         <v>34</v>
@@ -4294,34 +4556,34 @@
     </row>
     <row r="18" spans="1:18" ht="20">
       <c r="A18" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K18" s="52" t="s">
         <v>241</v>
       </c>
       <c r="L18" s="52" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M18" s="52" t="s">
         <v>231</v>
@@ -4333,10 +4595,10 @@
         <v>230</v>
       </c>
       <c r="P18" s="52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q18" s="52" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="R18" s="52" t="s">
         <v>29</v>
@@ -4344,169 +4606,237 @@
     </row>
     <row r="19" spans="1:18" ht="20">
       <c r="A19" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="11"/>
+        <v>203</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>219</v>
+      </c>
       <c r="H19" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K19" s="52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N19" s="54" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q19" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="R19" s="52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="20">
+      <c r="A20" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="N20" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q20" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="R20" s="52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="20">
+      <c r="A21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="N21" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="P19" s="52" t="s">
+      <c r="P21" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52" t="s">
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="27" t="s">
+    <row r="22" spans="1:18" ht="20">
+      <c r="K22" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="M22" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="N22" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="P22" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q22" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="R22" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="36" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B24" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C24" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="36" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F24" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H24" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I24" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J24" s="36" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="20">
-      <c r="A23" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="20">
-      <c r="A24" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="20">
       <c r="A25" s="26" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="26"/>
+        <v>247</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>221</v>
+      </c>
       <c r="D25" s="38" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>227</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="26" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="20">
@@ -4514,24 +4844,24 @@
         <v>220</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>61</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26" t="s">
         <v>29</v>
@@ -4539,62 +4869,60 @@
     </row>
     <row r="27" spans="1:18" ht="20">
       <c r="A27" s="26" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>216</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C27" s="26"/>
       <c r="D27" s="38" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="I27" s="26"/>
+        <v>216</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>227</v>
+      </c>
       <c r="J27" s="26" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="20">
       <c r="A28" s="26" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C28" s="26"/>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="33" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>232</v>
+        <v>321</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>199</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I28" s="26"/>
       <c r="J28" s="26" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="20">
@@ -4602,9 +4930,11 @@
         <v>220</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="26"/>
+        <v>230</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>216</v>
+      </c>
       <c r="D29" s="38" t="s">
         <v>12</v>
       </c>
@@ -4612,13 +4942,13 @@
         <v>190</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>222</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="26" t="s">
@@ -4627,31 +4957,119 @@
     </row>
     <row r="30" spans="1:18" ht="20">
       <c r="A30" s="26" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>216</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C30" s="26"/>
       <c r="D30" s="38" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="20">
+      <c r="A31" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F31" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="20">
+      <c r="A32" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G32" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H32" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26" t="s">
+      <c r="I32" s="26"/>
+      <c r="J32" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20">
+      <c r="A33" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" s="83"/>
+      <c r="J33" s="26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4663,10 +5081,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A85C719-AC3C-6747-BBDD-88DF7FFC821D}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4997,7 +5415,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -5017,7 +5435,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -5031,7 +5449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="20" customFormat="1">
+    <row r="19" spans="1:7" s="20" customFormat="1">
       <c r="A19" s="20" t="s">
         <v>7</v>
       </c>
@@ -5051,7 +5469,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -5071,10 +5489,56 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="J25">
-        <f>24-9</f>
-        <v>15</v>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <f>19+11</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <f>12+18</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5334,39 +5798,39 @@
         <v>1</v>
       </c>
       <c r="AO2" t="str">
-        <f>IF(W2=AF2,"","x")</f>
+        <f t="shared" ref="AO2:AW2" si="0">IF(W2=AF2,"","x")</f>
         <v/>
       </c>
       <c r="AP2" t="str">
-        <f>IF(X2=AG2,"","x")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AQ2" t="str">
-        <f>IF(Y2=AH2,"","x")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AR2" t="str">
-        <f>IF(Z2=AI2,"","x")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AS2" t="str">
-        <f>IF(AA2=AJ2,"","x")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AT2" t="str">
-        <f>IF(AB2=AK2,"","x")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AU2" t="str">
-        <f>IF(AC2=AL2,"","x")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AV2" t="str">
-        <f>IF(AD2=AM2,"","x")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AW2" t="str">
-        <f>IF(AE2=AN2,"","x")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5455,39 +5919,39 @@
         <v>1</v>
       </c>
       <c r="AO3" t="str">
-        <f>IF(W3=AF3,"","x")</f>
+        <f t="shared" ref="AO3:AO15" si="1">IF(W3=AF3,"","x")</f>
         <v/>
       </c>
       <c r="AP3" t="str">
-        <f>IF(X3=AG3,"","x")</f>
+        <f t="shared" ref="AP3:AP15" si="2">IF(X3=AG3,"","x")</f>
         <v/>
       </c>
       <c r="AQ3" t="str">
-        <f>IF(Y3=AH3,"","x")</f>
+        <f t="shared" ref="AQ3:AQ15" si="3">IF(Y3=AH3,"","x")</f>
         <v/>
       </c>
       <c r="AR3" t="str">
-        <f>IF(Z3=AI3,"","x")</f>
+        <f t="shared" ref="AR3:AR15" si="4">IF(Z3=AI3,"","x")</f>
         <v/>
       </c>
       <c r="AS3" t="str">
-        <f>IF(AA3=AJ3,"","x")</f>
+        <f t="shared" ref="AS3:AS15" si="5">IF(AA3=AJ3,"","x")</f>
         <v/>
       </c>
       <c r="AT3" t="str">
-        <f>IF(AB3=AK3,"","x")</f>
+        <f t="shared" ref="AT3:AT15" si="6">IF(AB3=AK3,"","x")</f>
         <v/>
       </c>
       <c r="AU3" t="str">
-        <f>IF(AC3=AL3,"","x")</f>
+        <f t="shared" ref="AU3:AU15" si="7">IF(AC3=AL3,"","x")</f>
         <v/>
       </c>
       <c r="AV3" t="str">
-        <f t="shared" ref="AV3:AV15" si="0">IF(AD3=AM3,"","x")</f>
+        <f t="shared" ref="AV3:AV15" si="8">IF(AD3=AM3,"","x")</f>
         <v/>
       </c>
       <c r="AW3" t="str">
-        <f t="shared" ref="AW3:AW15" si="1">IF(AE3=AN3,"","x")</f>
+        <f t="shared" ref="AW3:AW15" si="9">IF(AE3=AN3,"","x")</f>
         <v/>
       </c>
     </row>
@@ -5577,39 +6041,39 @@
         <v>3</v>
       </c>
       <c r="AO4" t="str">
-        <f>IF(W4=AF4,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP4" t="str">
-        <f>IF(X4=AG4,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ4" t="str">
-        <f>IF(Y4=AH4,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR4" t="str">
-        <f>IF(Z4=AI4,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS4" t="str">
-        <f>IF(AA4=AJ4,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT4" t="str">
-        <f>IF(AB4=AK4,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU4" t="str">
-        <f>IF(AC4=AL4,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5698,39 +6162,39 @@
         <v>4</v>
       </c>
       <c r="AO5" t="str">
-        <f>IF(W5=AF5,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP5" t="str">
-        <f>IF(X5=AG5,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ5" t="str">
-        <f>IF(Y5=AH5,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR5" t="str">
-        <f>IF(Z5=AI5,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS5" t="str">
-        <f>IF(AA5=AJ5,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT5" t="str">
-        <f>IF(AB5=AK5,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU5" t="str">
-        <f>IF(AC5=AL5,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5818,39 +6282,39 @@
         <v>2</v>
       </c>
       <c r="AO6" t="str">
-        <f>IF(W6=AF6,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP6" t="str">
-        <f>IF(X6=AG6,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ6" t="str">
-        <f>IF(Y6=AH6,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR6" t="str">
-        <f>IF(Z6=AI6,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS6" t="str">
-        <f>IF(AA6=AJ6,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT6" t="str">
-        <f>IF(AB6=AK6,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU6" t="str">
-        <f>IF(AC6=AL6,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -5939,39 +6403,39 @@
         <v>3</v>
       </c>
       <c r="AO7" t="str">
-        <f>IF(W7=AF7,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP7" t="str">
-        <f>IF(X7=AG7,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ7" t="str">
-        <f>IF(Y7=AH7,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR7" t="str">
-        <f>IF(Z7=AI7,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS7" t="str">
-        <f>IF(AA7=AJ7,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT7" t="str">
-        <f>IF(AB7=AK7,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU7" t="str">
-        <f>IF(AC7=AL7,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6064,39 +6528,39 @@
         <v>4</v>
       </c>
       <c r="AO8" t="str">
-        <f>IF(W8=AF8,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP8" t="str">
-        <f>IF(X8=AG8,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ8" t="str">
-        <f>IF(Y8=AH8,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR8" t="str">
-        <f>IF(Z8=AI8,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS8" t="str">
-        <f>IF(AA8=AJ8,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT8" t="str">
-        <f>IF(AB8=AK8,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU8" t="str">
-        <f>IF(AC8=AL8,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6176,39 +6640,39 @@
         <v>3</v>
       </c>
       <c r="AO9" t="str">
-        <f>IF(W9=AF9,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP9" t="str">
-        <f>IF(X9=AG9,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ9" t="str">
-        <f>IF(Y9=AH9,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR9" t="str">
-        <f>IF(Z9=AI9,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS9" t="str">
-        <f>IF(AA9=AJ9,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT9" t="str">
-        <f>IF(AB9=AK9,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU9" t="str">
-        <f>IF(AC9=AL9,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6298,39 +6762,39 @@
         <v>3</v>
       </c>
       <c r="AO10" t="str">
-        <f>IF(W10=AF10,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP10" t="str">
-        <f>IF(X10=AG10,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ10" t="str">
-        <f>IF(Y10=AH10,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR10" t="str">
-        <f>IF(Z10=AI10,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS10" t="str">
-        <f>IF(AA10=AJ10,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT10" t="str">
-        <f>IF(AB10=AK10,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU10" t="str">
-        <f>IF(AC10=AL10,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6425,39 +6889,39 @@
         <v>9</v>
       </c>
       <c r="AO11" t="str">
-        <f>IF(W11=AF11,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP11" t="str">
-        <f>IF(X11=AG11,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ11" t="str">
-        <f>IF(Y11=AH11,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR11" t="str">
-        <f>IF(Z11=AI11,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS11" t="str">
-        <f>IF(AA11=AJ11,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT11" t="str">
-        <f>IF(AB11=AK11,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU11" t="str">
-        <f>IF(AC11=AL11,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6550,39 +7014,39 @@
         <v>12</v>
       </c>
       <c r="AO12" t="str">
-        <f>IF(W12=AF12,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP12" t="str">
-        <f>IF(X12=AG12,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ12" t="str">
-        <f>IF(Y12=AH12,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR12" t="str">
-        <f>IF(Z12=AI12,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS12" t="str">
-        <f>IF(AA12=AJ12,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT12" t="str">
-        <f>IF(AB12=AK12,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU12" t="str">
-        <f>IF(AC12=AL12,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6674,39 +7138,39 @@
         <v>9</v>
       </c>
       <c r="AO13" t="str">
-        <f>IF(W13=AF13,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP13" t="str">
-        <f>IF(X13=AG13,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ13" t="str">
-        <f>IF(Y13=AH13,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR13" t="str">
-        <f>IF(Z13=AI13,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS13" t="str">
-        <f>IF(AA13=AJ13,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT13" t="str">
-        <f>IF(AB13=AK13,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU13" t="str">
-        <f>IF(AC13=AL13,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6800,39 +7264,39 @@
         <v>12</v>
       </c>
       <c r="AO14" t="str">
-        <f>IF(W14=AF14,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP14" t="str">
-        <f>IF(X14=AG14,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ14" t="str">
-        <f>IF(Y14=AH14,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR14" t="str">
-        <f>IF(Z14=AI14,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS14" t="str">
-        <f>IF(AA14=AJ14,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT14" t="str">
-        <f>IF(AB14=AK14,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU14" t="str">
-        <f>IF(AC14=AL14,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -6917,39 +7381,39 @@
         <v>3</v>
       </c>
       <c r="AO15" t="str">
-        <f>IF(W15=AF15,"","x")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP15" t="str">
-        <f>IF(X15=AG15,"","x")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AQ15" t="str">
-        <f>IF(Y15=AH15,"","x")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AR15" t="str">
-        <f>IF(Z15=AI15,"","x")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AS15" t="str">
-        <f>IF(AA15=AJ15,"","x")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT15" t="str">
-        <f>IF(AB15=AK15,"","x")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU15" t="str">
-        <f>IF(AC15=AL15,"","x")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AV15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AW15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7044,39 +7508,39 @@
         <v>1</v>
       </c>
       <c r="AO16" t="str">
-        <f t="shared" ref="AO16:AO31" si="2">IF(W16=AF16,"","x")</f>
+        <f t="shared" ref="AO16:AO31" si="10">IF(W16=AF16,"","x")</f>
         <v/>
       </c>
       <c r="AP16" t="str">
-        <f t="shared" ref="AP16:AP31" si="3">IF(X16=AG16,"","x")</f>
+        <f t="shared" ref="AP16:AP31" si="11">IF(X16=AG16,"","x")</f>
         <v/>
       </c>
       <c r="AQ16" t="str">
-        <f t="shared" ref="AQ16:AQ31" si="4">IF(Y16=AH16,"","x")</f>
+        <f t="shared" ref="AQ16:AQ31" si="12">IF(Y16=AH16,"","x")</f>
         <v/>
       </c>
       <c r="AR16" t="str">
-        <f t="shared" ref="AR16:AR31" si="5">IF(Z16=AI16,"","x")</f>
+        <f t="shared" ref="AR16:AR31" si="13">IF(Z16=AI16,"","x")</f>
         <v/>
       </c>
       <c r="AS16" t="str">
-        <f t="shared" ref="AS16:AS31" si="6">IF(AA16=AJ16,"","x")</f>
+        <f t="shared" ref="AS16:AS31" si="14">IF(AA16=AJ16,"","x")</f>
         <v/>
       </c>
       <c r="AT16" t="str">
-        <f t="shared" ref="AT16:AT31" si="7">IF(AB16=AK16,"","x")</f>
+        <f t="shared" ref="AT16:AT31" si="15">IF(AB16=AK16,"","x")</f>
         <v/>
       </c>
       <c r="AU16" t="str">
-        <f t="shared" ref="AU16:AU31" si="8">IF(AC16=AL16,"","x")</f>
+        <f t="shared" ref="AU16:AU31" si="16">IF(AC16=AL16,"","x")</f>
         <v/>
       </c>
       <c r="AV16" t="str">
-        <f t="shared" ref="AV16:AV31" si="9">IF(AD16=AM16,"","x")</f>
+        <f t="shared" ref="AV16:AV31" si="17">IF(AD16=AM16,"","x")</f>
         <v/>
       </c>
       <c r="AW16" t="str">
-        <f t="shared" ref="AW16:AW31" si="10">IF(AE16=AN16,"","x")</f>
+        <f t="shared" ref="AW16:AW31" si="18">IF(AE16=AN16,"","x")</f>
         <v/>
       </c>
     </row>
@@ -7171,39 +7635,39 @@
         <v>1</v>
       </c>
       <c r="AO17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -7309,39 +7773,39 @@
         <v>3</v>
       </c>
       <c r="AO18" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP18" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ18" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR18" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS18" s="20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT18" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU18" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV18" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW18" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -7442,39 +7906,39 @@
         <v>1</v>
       </c>
       <c r="AO19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -7581,39 +8045,39 @@
         <v>1</v>
       </c>
       <c r="AO20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -7715,39 +8179,39 @@
         <v>3</v>
       </c>
       <c r="AO21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -7847,39 +8311,39 @@
         <v>1</v>
       </c>
       <c r="AO22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -7984,39 +8448,39 @@
         <v>1</v>
       </c>
       <c r="AO23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -8121,39 +8585,39 @@
         <v>2</v>
       </c>
       <c r="AO24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -8258,39 +8722,39 @@
         <v>8</v>
       </c>
       <c r="AO25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -8372,39 +8836,39 @@
         <v>2</v>
       </c>
       <c r="AO26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -8496,39 +8960,39 @@
         <v>2</v>
       </c>
       <c r="AO27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -8626,39 +9090,39 @@
         <v>6</v>
       </c>
       <c r="AO28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -8754,39 +9218,39 @@
         <v>8</v>
       </c>
       <c r="AO29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -8882,39 +9346,39 @@
       </c>
       <c r="AN30" s="72"/>
       <c r="AO30" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP30" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ30" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR30" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS30" s="20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT30" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU30" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV30" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW30" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9013,39 +9477,39 @@
       </c>
       <c r="AN31" s="72"/>
       <c r="AO31" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AP31" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ31" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR31" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AS31" s="20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AT31" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU31" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV31" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW31" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9131,39 +9595,39 @@
         <v>2</v>
       </c>
       <c r="AO32" s="20" t="str">
-        <f t="shared" ref="AO32" si="11">IF(W32=AF32,"","x")</f>
+        <f t="shared" ref="AO32" si="19">IF(W32=AF32,"","x")</f>
         <v/>
       </c>
       <c r="AP32" s="20" t="str">
-        <f t="shared" ref="AP32" si="12">IF(X32=AG32,"","x")</f>
+        <f t="shared" ref="AP32" si="20">IF(X32=AG32,"","x")</f>
         <v/>
       </c>
       <c r="AQ32" s="20" t="str">
-        <f t="shared" ref="AQ32" si="13">IF(Y32=AH32,"","x")</f>
+        <f t="shared" ref="AQ32" si="21">IF(Y32=AH32,"","x")</f>
         <v/>
       </c>
       <c r="AR32" s="20" t="str">
-        <f t="shared" ref="AR32" si="14">IF(Z32=AI32,"","x")</f>
+        <f t="shared" ref="AR32" si="22">IF(Z32=AI32,"","x")</f>
         <v/>
       </c>
       <c r="AS32" s="20" t="str">
-        <f t="shared" ref="AS32" si="15">IF(AA32=AJ32,"","x")</f>
+        <f t="shared" ref="AS32" si="23">IF(AA32=AJ32,"","x")</f>
         <v/>
       </c>
       <c r="AT32" s="20" t="str">
-        <f t="shared" ref="AT32" si="16">IF(AB32=AK32,"","x")</f>
+        <f t="shared" ref="AT32" si="24">IF(AB32=AK32,"","x")</f>
         <v/>
       </c>
       <c r="AU32" s="20" t="str">
-        <f t="shared" ref="AU32" si="17">IF(AC32=AL32,"","x")</f>
+        <f t="shared" ref="AU32" si="25">IF(AC32=AL32,"","x")</f>
         <v/>
       </c>
       <c r="AV32" s="20" t="str">
-        <f t="shared" ref="AV32:AV34" si="18">IF(AD32=AM32,"","x")</f>
+        <f t="shared" ref="AV32:AV34" si="26">IF(AD32=AM32,"","x")</f>
         <v/>
       </c>
       <c r="AW32" s="20" t="str">
-        <f t="shared" ref="AW32" si="19">IF(AE32=AN32,"","x")</f>
+        <f t="shared" ref="AW32" si="27">IF(AE32=AN32,"","x")</f>
         <v/>
       </c>
     </row>
@@ -9250,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="AV33" s="20" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -9331,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="AV34" s="20" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -25065,15 +25529,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C160A7-0233-CD41-B0A7-C073DB6908D6}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -25116,8 +25580,11 @@
       <c r="N1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="47" t="s">
         <v>138</v>
       </c>
@@ -25161,7 +25628,7 @@
         <v>-2.7730000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="47" t="s">
         <v>139</v>
       </c>
@@ -25205,7 +25672,7 @@
         <v>-3.3025000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="47" t="s">
         <v>140</v>
       </c>
@@ -25249,7 +25716,7 @@
         <v>-2.2894999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="47" t="s">
         <v>141</v>
       </c>
@@ -25293,7 +25760,7 @@
         <v>-2.8025000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="47" t="s">
         <v>142</v>
       </c>
@@ -25337,7 +25804,7 @@
         <v>-3.0129000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="47" t="s">
         <v>143</v>
       </c>
